--- a/cn.edu.thu.tsmart.tool.da/doc/indexPage/table-figs.xlsx
+++ b/cn.edu.thu.tsmart.tool.da/doc/indexPage/table-figs.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6110" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16176" windowHeight="6108" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="82">
   <si>
     <t>Version ID</t>
   </si>
@@ -260,6 +262,18 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>VAL</t>
   </si>
 </sst>
 </file>
@@ -309,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -332,15 +346,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -359,6 +396,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,1147 +688,1147 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D19"/>
+      <selection sqref="A1:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>6362</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>256275</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>107674</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>154963</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>860</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>13999</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>291</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>963</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>624</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>15483</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>1878</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>1.2070000000000001E-2</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>8.09E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>19223</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>385645</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>155174</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>249694</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1778</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>4937</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>118</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>695</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>2783</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>9498</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>3596</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>1.4239999999999999E-2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>3.2599999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>6229</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>468011</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>176216</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>298024</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>491</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>7637</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>76</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>248</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>1311</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>9439</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>1635</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>5.4599999999999996E-3</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>1.09E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5177</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>347358</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>139623</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>212912</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>141</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>1335</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>108</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>417</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>1893</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>530</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>2.48E-3</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>5.2999999999999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>791</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>4500</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3479</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>1812</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>29</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>4</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>54</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>83</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>58</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>3.108E-2</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>2.2100000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>164</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>107</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>61</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>7</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>2</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>1</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>9</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>4</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>6.4519999999999994E-2</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>4.9180000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>90</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>560</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>323</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>327</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>7</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>77</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>85</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>80</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>0.19802</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>9.1699999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>18</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>4486</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>3452</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>1052</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>18</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>4</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>7</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>25</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>11</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>1.039E-2</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>556</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1127</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>814</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>869</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>95</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>166</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>17</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>160</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>421</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>177</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>0.17201</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <v>1.9560000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1479</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>23151</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>7330</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>17300</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>1051</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>2830</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>617</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>654</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>279</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>4160</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>1550</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>8.8169999999999998E-2</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>7.3469999999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>1479</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>23194</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>7198</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>17475</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>1051</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>2767</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>617</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>642</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>279</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>4097</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>1538</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>8.6629999999999999E-2</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <v>7.2050000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>161</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>1253</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>464</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>950</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>30</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>261</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>7</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>111</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>6</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>297</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>124</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>0.12970999999999999</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <v>0.12421</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>410</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>113</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>313</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>8</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>89</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>8</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>7</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>43</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>140</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>58</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>0.16292000000000001</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>4.7919999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>240</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>385</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>250</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>375</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>68</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>51</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>44</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>21</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>57</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>176</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>122</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>0.28240999999999999</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <v>0.17333000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>0</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>35</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>36</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>36</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>1</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>752</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>522</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>241</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>1033</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>519</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>48</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>283</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>8</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>100</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>667</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>391</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>0.34510000000000002</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>0.28170000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>295</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>1215</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>806</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>704</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>5</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>42</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>3</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>12</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>80</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>127</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>95</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>0.12117</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <v>2.1309999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>157</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>238</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>165</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>230</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>10</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>3</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>39</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>49</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>42</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>0.15612999999999999</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <v>1.304E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>790</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>1707</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>970</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>1527</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>3</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>25</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>3</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>10</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>56</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>84</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>69</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>4.3589999999999997E-2</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>8.5100000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>12</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>68</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>22</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>58</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>4</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>24</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>4</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>4</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>28</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>8</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>0.13793</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <v>0.13793</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>1222</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>7898</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>1488</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>7632</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>873</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>2526</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>816</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>125</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>193</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>3592</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="7">
         <v>1134</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>0.14491999999999999</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <v>0.12330000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>56</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>465</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>265</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>256</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>2</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>0</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>1</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>8</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>10</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="7">
         <v>9</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>3.4090000000000002E-2</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>3.9100000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>56</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>9</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>11</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>54</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>34</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>14</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>0</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>26</v>
       </c>
-      <c r="K25" s="8">
-        <v>60</v>
-      </c>
-      <c r="L25" s="8">
+      <c r="K25" s="7">
+        <v>60</v>
+      </c>
+      <c r="L25" s="7">
         <v>40</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>0.5</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <v>0.25925999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>25</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>107</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>71</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>61</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>1</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>0</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>1</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>3</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>4</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>4</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <v>1.6389999999999998E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1797,89 +1843,89 @@
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1892,370 +1938,1837 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="23.81640625" customWidth="1"/>
-    <col min="3" max="3" width="39.08984375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="C11" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="C19" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="C20" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="C31" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
+        <v>6362</v>
+      </c>
+      <c r="D3" s="5">
+        <v>256275</v>
+      </c>
+      <c r="E3" s="5">
+        <v>107674</v>
+      </c>
+      <c r="F3" s="6">
+        <v>154963</v>
+      </c>
+      <c r="G3" s="5">
+        <v>860</v>
+      </c>
+      <c r="H3" s="5">
+        <v>13999</v>
+      </c>
+      <c r="I3" s="5">
+        <v>291</v>
+      </c>
+      <c r="J3" s="5">
+        <v>963</v>
+      </c>
+      <c r="K3" s="5">
+        <v>624</v>
+      </c>
+      <c r="L3" s="7">
+        <v>15483</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1878</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1.2070000000000001E-2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>8.09E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
+        <v>19223</v>
+      </c>
+      <c r="D4" s="5">
+        <v>385645</v>
+      </c>
+      <c r="E4" s="5">
+        <v>155174</v>
+      </c>
+      <c r="F4" s="6">
+        <v>249694</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1778</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4937</v>
+      </c>
+      <c r="I4" s="5">
+        <v>118</v>
+      </c>
+      <c r="J4" s="5">
+        <v>695</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2783</v>
+      </c>
+      <c r="L4" s="7">
+        <v>9498</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3596</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1.4239999999999999E-2</v>
+      </c>
+      <c r="O4" s="8">
+        <v>3.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>6229</v>
+      </c>
+      <c r="D5" s="5">
+        <v>468011</v>
+      </c>
+      <c r="E5" s="5">
+        <v>176216</v>
+      </c>
+      <c r="F5" s="6">
+        <v>298024</v>
+      </c>
+      <c r="G5" s="5">
+        <v>491</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7637</v>
+      </c>
+      <c r="I5" s="5">
+        <v>76</v>
+      </c>
+      <c r="J5" s="5">
+        <v>248</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1311</v>
+      </c>
+      <c r="L5" s="7">
+        <v>9439</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1635</v>
+      </c>
+      <c r="N5" s="8">
+        <v>5.4599999999999996E-3</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1.09E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>5177</v>
+      </c>
+      <c r="D6" s="5">
+        <v>347358</v>
+      </c>
+      <c r="E6" s="5">
+        <v>139623</v>
+      </c>
+      <c r="F6" s="6">
+        <v>212912</v>
+      </c>
+      <c r="G6" s="5">
+        <v>141</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1335</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>108</v>
+      </c>
+      <c r="K6" s="5">
+        <v>417</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1893</v>
+      </c>
+      <c r="M6" s="7">
+        <v>530</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2.48E-3</v>
+      </c>
+      <c r="O6" s="8">
+        <v>5.2999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>791</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4500</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3479</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1812</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>54</v>
+      </c>
+      <c r="L7" s="7">
+        <v>83</v>
+      </c>
+      <c r="M7" s="7">
+        <v>58</v>
+      </c>
+      <c r="N7" s="8">
+        <v>3.108E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <v>2.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>164</v>
+      </c>
+      <c r="E8" s="5">
+        <v>107</v>
+      </c>
+      <c r="F8" s="6">
+        <v>61</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>9</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4</v>
+      </c>
+      <c r="N8" s="8">
+        <v>6.4519999999999994E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <v>4.9180000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="5">
+        <v>90</v>
+      </c>
+      <c r="D9" s="5">
+        <v>560</v>
+      </c>
+      <c r="E9" s="5">
+        <v>323</v>
+      </c>
+      <c r="F9" s="6">
+        <v>327</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>77</v>
+      </c>
+      <c r="L9" s="7">
+        <v>85</v>
+      </c>
+      <c r="M9" s="7">
+        <v>80</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.19802</v>
+      </c>
+      <c r="O9" s="8">
+        <v>9.1699999999999993E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4486</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3452</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1052</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7">
+        <v>25</v>
+      </c>
+      <c r="M10" s="7">
+        <v>11</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1.039E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <v>556</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1127</v>
+      </c>
+      <c r="E11" s="5">
+        <v>814</v>
+      </c>
+      <c r="F11" s="6">
+        <v>869</v>
+      </c>
+      <c r="G11" s="5">
+        <v>95</v>
+      </c>
+      <c r="H11" s="5">
+        <v>166</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>17</v>
+      </c>
+      <c r="K11" s="5">
+        <v>160</v>
+      </c>
+      <c r="L11" s="7">
+        <v>421</v>
+      </c>
+      <c r="M11" s="7">
+        <v>177</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.17201</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1.9560000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
+        <v>1479</v>
+      </c>
+      <c r="D12" s="5">
+        <v>23151</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7330</v>
+      </c>
+      <c r="F12" s="6">
+        <v>17300</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1051</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2830</v>
+      </c>
+      <c r="I12" s="5">
+        <v>617</v>
+      </c>
+      <c r="J12" s="5">
+        <v>654</v>
+      </c>
+      <c r="K12" s="5">
+        <v>279</v>
+      </c>
+      <c r="L12" s="7">
+        <v>4160</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1550</v>
+      </c>
+      <c r="N12" s="8">
+        <v>8.8169999999999998E-2</v>
+      </c>
+      <c r="O12" s="8">
+        <v>7.3469999999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
+        <v>1479</v>
+      </c>
+      <c r="D13" s="5">
+        <v>23194</v>
+      </c>
+      <c r="E13" s="5">
+        <v>7198</v>
+      </c>
+      <c r="F13" s="6">
+        <v>17475</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1051</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2767</v>
+      </c>
+      <c r="I13" s="5">
+        <v>617</v>
+      </c>
+      <c r="J13" s="5">
+        <v>642</v>
+      </c>
+      <c r="K13" s="5">
+        <v>279</v>
+      </c>
+      <c r="L13" s="7">
+        <v>4097</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1538</v>
+      </c>
+      <c r="N13" s="8">
+        <v>8.6629999999999999E-2</v>
+      </c>
+      <c r="O13" s="8">
+        <v>7.2050000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <v>161</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1253</v>
+      </c>
+      <c r="E14" s="5">
+        <v>464</v>
+      </c>
+      <c r="F14" s="6">
+        <v>950</v>
+      </c>
+      <c r="G14" s="5">
+        <v>30</v>
+      </c>
+      <c r="H14" s="5">
+        <v>261</v>
+      </c>
+      <c r="I14" s="5">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5">
+        <v>111</v>
+      </c>
+      <c r="K14" s="5">
+        <v>6</v>
+      </c>
+      <c r="L14" s="7">
+        <v>297</v>
+      </c>
+      <c r="M14" s="7">
+        <v>124</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.12970999999999999</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.12421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="5">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5">
+        <v>410</v>
+      </c>
+      <c r="E15" s="5">
+        <v>113</v>
+      </c>
+      <c r="F15" s="6">
+        <v>313</v>
+      </c>
+      <c r="G15" s="5">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5">
+        <v>89</v>
+      </c>
+      <c r="I15" s="5">
+        <v>8</v>
+      </c>
+      <c r="J15" s="5">
+        <v>7</v>
+      </c>
+      <c r="K15" s="5">
+        <v>43</v>
+      </c>
+      <c r="L15" s="7">
+        <v>140</v>
+      </c>
+      <c r="M15" s="7">
+        <v>58</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.16292000000000001</v>
+      </c>
+      <c r="O15" s="8">
+        <v>4.7919999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="5">
+        <v>240</v>
+      </c>
+      <c r="D16" s="5">
+        <v>385</v>
+      </c>
+      <c r="E16" s="5">
+        <v>250</v>
+      </c>
+      <c r="F16" s="6">
+        <v>375</v>
+      </c>
+      <c r="G16" s="5">
+        <v>68</v>
+      </c>
+      <c r="H16" s="5">
+        <v>51</v>
+      </c>
+      <c r="I16" s="5">
+        <v>44</v>
+      </c>
+      <c r="J16" s="5">
+        <v>21</v>
+      </c>
+      <c r="K16" s="5">
+        <v>57</v>
+      </c>
+      <c r="L16" s="7">
+        <v>176</v>
+      </c>
+      <c r="M16" s="7">
+        <v>122</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.28240999999999999</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.17333000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>35</v>
+      </c>
+      <c r="L17" s="7">
+        <v>36</v>
+      </c>
+      <c r="M17" s="7">
+        <v>36</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <v>752</v>
+      </c>
+      <c r="D18" s="5">
+        <v>522</v>
+      </c>
+      <c r="E18" s="5">
+        <v>241</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1033</v>
+      </c>
+      <c r="G18" s="5">
+        <v>519</v>
+      </c>
+      <c r="H18" s="5">
+        <v>48</v>
+      </c>
+      <c r="I18" s="5">
+        <v>283</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5">
+        <v>100</v>
+      </c>
+      <c r="L18" s="7">
+        <v>667</v>
+      </c>
+      <c r="M18" s="7">
+        <v>391</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.28170000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <v>295</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1215</v>
+      </c>
+      <c r="E19" s="5">
+        <v>806</v>
+      </c>
+      <c r="F19" s="6">
+        <v>704</v>
+      </c>
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>42</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5">
+        <v>12</v>
+      </c>
+      <c r="K19" s="5">
+        <v>80</v>
+      </c>
+      <c r="L19" s="7">
+        <v>127</v>
+      </c>
+      <c r="M19" s="7">
+        <v>95</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.12117</v>
+      </c>
+      <c r="O19" s="8">
+        <v>2.1309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
+        <v>157</v>
+      </c>
+      <c r="D20" s="5">
+        <v>238</v>
+      </c>
+      <c r="E20" s="5">
+        <v>165</v>
+      </c>
+      <c r="F20" s="6">
+        <v>230</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>39</v>
+      </c>
+      <c r="L20" s="7">
+        <v>49</v>
+      </c>
+      <c r="M20" s="7">
+        <v>42</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.15612999999999999</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1.304E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5">
+        <v>790</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1707</v>
+      </c>
+      <c r="E21" s="5">
+        <v>970</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1527</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3</v>
+      </c>
+      <c r="H21" s="5">
+        <v>25</v>
+      </c>
+      <c r="I21" s="5">
+        <v>3</v>
+      </c>
+      <c r="J21" s="5">
+        <v>10</v>
+      </c>
+      <c r="K21" s="5">
+        <v>56</v>
+      </c>
+      <c r="L21" s="7">
+        <v>84</v>
+      </c>
+      <c r="M21" s="7">
+        <v>69</v>
+      </c>
+      <c r="N21" s="8">
+        <v>4.3589999999999997E-2</v>
+      </c>
+      <c r="O21" s="8">
+        <v>8.5100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5">
+        <v>68</v>
+      </c>
+      <c r="E22" s="5">
+        <v>22</v>
+      </c>
+      <c r="F22" s="6">
+        <v>58</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4</v>
+      </c>
+      <c r="H22" s="5">
+        <v>24</v>
+      </c>
+      <c r="I22" s="5">
+        <v>4</v>
+      </c>
+      <c r="J22" s="5">
+        <v>4</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>28</v>
+      </c>
+      <c r="M22" s="7">
+        <v>8</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.13793</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.13793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5">
+        <v>1222</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7898</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1488</v>
+      </c>
+      <c r="F23" s="6">
+        <v>7632</v>
+      </c>
+      <c r="G23" s="5">
+        <v>873</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2526</v>
+      </c>
+      <c r="I23" s="5">
+        <v>816</v>
+      </c>
+      <c r="J23" s="5">
+        <v>125</v>
+      </c>
+      <c r="K23" s="5">
+        <v>193</v>
+      </c>
+      <c r="L23" s="7">
+        <v>3592</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1134</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.14491999999999999</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.12330000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5">
+        <v>56</v>
+      </c>
+      <c r="D24" s="5">
+        <v>465</v>
+      </c>
+      <c r="E24" s="5">
+        <v>265</v>
+      </c>
+      <c r="F24" s="6">
+        <v>256</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>8</v>
+      </c>
+      <c r="L24" s="7">
+        <v>10</v>
+      </c>
+      <c r="M24" s="7">
+        <v>9</v>
+      </c>
+      <c r="N24" s="8">
+        <v>3.4090000000000002E-2</v>
+      </c>
+      <c r="O24" s="8">
+        <v>3.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5">
+        <v>56</v>
+      </c>
+      <c r="D25" s="5">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5">
+        <v>11</v>
+      </c>
+      <c r="F25" s="6">
+        <v>54</v>
+      </c>
+      <c r="G25" s="5">
+        <v>34</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>14</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>26</v>
+      </c>
+      <c r="L25" s="7">
+        <v>60</v>
+      </c>
+      <c r="M25" s="7">
+        <v>40</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.25925999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5">
+        <v>107</v>
+      </c>
+      <c r="E26" s="5">
+        <v>71</v>
+      </c>
+      <c r="F26" s="6">
+        <v>61</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>3</v>
+      </c>
+      <c r="L26" s="7">
+        <v>4</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4</v>
+      </c>
+      <c r="N26" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1.6389999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>